--- a/训练中心创客交叉融合空间建设/admin/自行车工坊采购列表.xlsx
+++ b/训练中心创客交叉融合空间建设/admin/自行车工坊采购列表.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="一期采购方案" sheetId="4" r:id="rId1"/>
+    <sheet name="全面采购方案" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="54">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,6 +42,100 @@
   </si>
   <si>
     <t>规格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自行车改装的支架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://item.taobao.com/item.htm?spm=a1z10.3.w4002-545140379.13.Jsl4Kp&amp;id=38932611383</t>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>220 psi</t>
+  </si>
+  <si>
+    <t>300pai</t>
+  </si>
+  <si>
+    <t>W014</t>
+  </si>
+  <si>
+    <t>http://detail.tmall.com/item.htm?spm=a230r.1.0.0.KlCUhu&amp;id=17051062334&amp;abbucket=7</t>
+  </si>
+  <si>
+    <t>调圈台</t>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷音高压气筒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOPEAK自行车迷你打气筒高压</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parktool 大型棘轮扳手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TW-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>topeak停车架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://item.taobao.com/item.htm?spm=a230r.1.14.4.PKuBed&amp;id=40298989550&amp;ns=1&amp;abbucket=15#detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://item.taobao.com/item.htm?spm=a230r.1.14.14.2F39DQ&amp;id=38959718354&amp;ns=1&amp;abbucket=15#detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUPERB工具箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TW-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://item.taobao.com/item.htm?spm=a230r.1.14.1.c9Skpc&amp;id=38687829255&amp;ns=1&amp;abbucket=15#detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tba3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000g精度0.01g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英衡电子天平秤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://detail.tmall.com/item.htm?spm=a230r.1.14.4.lwMHnh&amp;id=39519830468&amp;abbucket=15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tw001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://item.taobao.com/item.htm?spm=a230r.1.14.1.2Mj60C&amp;id=35786969205&amp;ns=1&amp;abbucket=15#detail</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -51,7 +145,6 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -68,7 +161,6 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -85,7 +177,6 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -96,91 +187,78 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>自行车改装的支架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://item.taobao.com/item.htm?spm=a1z10.3.w4002-545140379.13.Jsl4Kp&amp;id=38932611383</t>
-  </si>
-  <si>
     <t>parktool 大型棘轮扳手</t>
-  </si>
-  <si>
-    <t>10-60NM扭力扳手 TW-6</t>
-  </si>
-  <si>
-    <t>http://item.taobao.com/item.htm?spm=a1z10.3.w4002-545140379.22.CrfDKI&amp;id=39103414284</t>
-  </si>
-  <si>
-    <t>http://item.taobao.com/item.htm?spm=a1z10.3.w4002-545140379.10.CrfDKI&amp;id=38956511252</t>
-  </si>
-  <si>
-    <t>Parktool 棘轮扳手扭力扳手转接头套组 SBS-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cyclus电子秤</t>
-  </si>
-  <si>
-    <t>电子天平</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Elite SuperCrono Forte</t>
-  </si>
-  <si>
-    <t>成品车测试用品</t>
-  </si>
-  <si>
-    <t>雷音高压气筒</t>
-  </si>
-  <si>
-    <t>http://detail.tmall.com/item.htm?spm=a230r.1.0.0.aLdlqE&amp;id=22237720003&amp;abbucket=7</t>
-  </si>
-  <si>
-    <t>220 psi</t>
-  </si>
-  <si>
-    <t>http://detail.tmall.com/item.htm?spm=a230r.1.0.0.47Yq2D&amp;id=36933065828&amp;ad_id=&amp;am_id=&amp;cm_id=140105335569ed55e27b&amp;pm_id=&amp;abbucket=7</t>
-  </si>
-  <si>
-    <t>TOPEAK自行车迷你打气筒高压</t>
-  </si>
-  <si>
-    <t>300pai</t>
-  </si>
-  <si>
-    <t>muc-off油和清洁剂</t>
-  </si>
-  <si>
-    <t>链条油，前叉油和刹车油等</t>
-  </si>
-  <si>
-    <t>topeak停车架</t>
-  </si>
-  <si>
-    <t>W014</t>
-  </si>
-  <si>
-    <t>http://detail.tmall.com/item.htm?spm=a230r.1.0.0.KlCUhu&amp;id=17051062334&amp;abbucket=7</t>
-  </si>
-  <si>
-    <t>调圈台</t>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金属工作台和洞洞板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>muc-off清洁套装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷子、洗链器和清洁剂等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://item.taobao.com/item.htm?spm=a230r.1.14.54.J0xCKV&amp;id=38259131700&amp;ns=1&amp;abbucket=15#detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://item.taobao.com/item.htm?spm=a230r.1.14.4.6MRjrM&amp;id=9717237868&amp;ns=1&amp;abbucket=15#detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://item.taobao.com/item.htm?spm=a230r.1.14.45.J0xCKV&amp;id=40766517568&amp;ns=1&amp;abbucket=15#detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>muc-off清洁油</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湿性50ml和干性50ML</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://detail.tmall.com/item.htm?spm=a230r.1.14.4.AdOLlF&amp;id=37590570414&amp;abbucket=15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赛领养护油</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞赛级升级版（套餐七）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>总计</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金属工作台</t>
+  </si>
+  <si>
+    <t>洞洞板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准0.8毫米 2x1米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://item.taobao.com/item.htm?spm=a230r.1.14.35.pt2HSN&amp;id=16980931684&amp;ns=1&amp;abbucket=15#detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>topeak 维修台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IBERA自行车墙壁挂钩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://item.taobao.com/item.htm?spm=a230r.1.14.13.y4j44d&amp;id=41117473496&amp;ns=1&amp;abbucket=15#detail</t>
   </si>
 </sst>
 </file>
@@ -188,9 +266,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="_ [$¥-804]* #,##0.00_ ;_ [$¥-804]* \-#,##0.00_ ;_ [$¥-804]* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ [$¥-804]* #,##0.00_ ;_ [$¥-804]* \-#,##0.00_ ;_ [$¥-804]* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,20 +284,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -228,9 +292,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -256,14 +331,20 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -567,359 +648,852 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H19"/>
+  <dimension ref="B2:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:D15"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8">
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="4">
+        <v>6500</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4">
+        <f>E3*F3</f>
+        <v>6500</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="4">
+        <v>928</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" ref="G4:G17" si="0">E4*F4</f>
+        <v>928</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="4">
+        <v>798</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="0"/>
+        <v>798</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1400</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="0"/>
+        <v>1400</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="4">
+        <v>385</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="0"/>
+        <v>385</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="4">
+        <v>390</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="0"/>
+        <v>780</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="4">
+        <v>310</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4">
+        <f>E9*F9</f>
+        <v>310</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="4">
+        <v>169</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="0"/>
+        <v>169</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="4">
+        <v>360</v>
+      </c>
+      <c r="F11" s="3">
+        <v>5</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="0"/>
+        <v>1800</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12">
+        <v>13</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="4">
+        <v>140</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="0"/>
+        <v>280</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13">
+        <v>14</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="4">
+        <v>980</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="0"/>
+        <v>980</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14">
+        <v>15</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="2">
+        <v>72</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15">
+        <v>16</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="2">
+        <v>269</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="0"/>
+        <v>269</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16">
+        <v>17</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17">
+        <v>18</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="2">
+        <v>127</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="0"/>
+        <v>254</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="2">
+        <f>SUM(G3:G17)</f>
+        <v>14997</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H3" r:id="rId1"/>
+    <hyperlink ref="H5" r:id="rId2" location="detail"/>
+    <hyperlink ref="H9" r:id="rId3" location="detail"/>
+    <hyperlink ref="H11" r:id="rId4"/>
+    <hyperlink ref="H8" r:id="rId5" location="detail"/>
+    <hyperlink ref="H6" r:id="rId6" location="detail"/>
+    <hyperlink ref="H14" r:id="rId7" location="detail"/>
+    <hyperlink ref="H13" r:id="rId8" location="detail"/>
+    <hyperlink ref="H10" r:id="rId9" location="detail"/>
+    <hyperlink ref="H17" r:id="rId10"/>
+    <hyperlink ref="H12" r:id="rId11" location="detail"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:8">
       <c r="B2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="H2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:8">
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="C3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="4">
         <v>6500</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3">
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4">
         <f>E3*F3</f>
         <v>6500</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:8">
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="C4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="4">
         <v>2388</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3">
-        <f t="shared" ref="G4:G41" si="0">E4*F4</f>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" ref="G4:G19" si="0">E4*F4</f>
         <v>2388</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="H4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="3">
-        <v>848</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5" s="3">
-        <f t="shared" si="0"/>
-        <v>1696</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="4">
+        <v>928</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="0"/>
+        <v>928</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
       <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="3">
-        <v>230</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6" s="3">
-        <f t="shared" si="0"/>
-        <v>460</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="4">
+        <v>798</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="0"/>
+        <v>798</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
       <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="3">
-        <v>500</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3">
-        <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1400</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="0"/>
+        <v>1400</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="4">
+        <v>385</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="0"/>
+        <v>385</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="4">
+        <v>390</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="0"/>
+        <v>780</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="4">
+        <v>310</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4">
+        <f>E10*F10</f>
+        <v>310</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="4">
+        <v>169</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="0"/>
+        <v>169</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="4">
+        <v>360</v>
+      </c>
+      <c r="F12" s="3">
+        <v>5</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="0"/>
+        <v>1800</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="4">
+        <v>140</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" si="0"/>
+        <v>280</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="4">
+        <v>980</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="0"/>
+        <v>980</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="2">
+        <v>72</v>
+      </c>
+      <c r="F16" s="3">
+        <v>2</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="2">
+        <v>269</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="0"/>
+        <v>269</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19">
         <v>18</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="3">
-        <v>500</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3">
-        <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-      <c r="H8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="3">
-        <v>4000</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3">
-        <f t="shared" si="0"/>
-        <v>4000</v>
-      </c>
-      <c r="H9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B10">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="3">
-        <v>680</v>
-      </c>
-      <c r="F10">
+      <c r="C19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="2">
+        <v>127</v>
+      </c>
+      <c r="F19" s="3">
         <v>2</v>
       </c>
-      <c r="G10" s="3">
-        <f t="shared" si="0"/>
-        <v>1360</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B11">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="3">
-        <v>472</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3">
-        <f t="shared" si="0"/>
-        <v>472</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B12">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3">
-        <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B13">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="3">
-        <v>360</v>
-      </c>
-      <c r="F13">
-        <v>5</v>
-      </c>
-      <c r="G13" s="3">
-        <f t="shared" si="0"/>
-        <v>1800</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B14">
-        <v>12</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B15">
-        <v>13</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B16">
-        <v>14</v>
-      </c>
-      <c r="G16" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="3">
-        <f>SUM(G3:G18)</f>
-        <v>20676</v>
+      <c r="G19" s="2">
+        <f t="shared" si="0"/>
+        <v>254</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="2">
+        <f>SUM(G3:G19)</f>
+        <v>17385</v>
       </c>
     </row>
   </sheetData>
@@ -927,27 +1501,21 @@
   <hyperlinks>
     <hyperlink ref="H3" r:id="rId1"/>
     <hyperlink ref="H4" r:id="rId2"/>
-    <hyperlink ref="H5" r:id="rId3"/>
-    <hyperlink ref="H6" r:id="rId4"/>
-    <hyperlink ref="H10" r:id="rId5"/>
-    <hyperlink ref="H11" r:id="rId6"/>
-    <hyperlink ref="H13" r:id="rId7"/>
+    <hyperlink ref="H6" r:id="rId3" location="detail"/>
+    <hyperlink ref="H10" r:id="rId4" location="detail"/>
+    <hyperlink ref="H12" r:id="rId5"/>
+    <hyperlink ref="H7" r:id="rId6" location="detail"/>
+    <hyperlink ref="H9" r:id="rId7" location="detail"/>
+    <hyperlink ref="H5" r:id="rId8" location="detail"/>
+    <hyperlink ref="H8" r:id="rId9"/>
+    <hyperlink ref="H16" r:id="rId10" location="detail"/>
+    <hyperlink ref="H15" r:id="rId11" location="detail"/>
+    <hyperlink ref="H11" r:id="rId12" location="detail"/>
+    <hyperlink ref="H19" r:id="rId13"/>
+    <hyperlink ref="H14" r:id="rId14" location="detail"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
 
@@ -957,7 +1525,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
